--- a/predict/2023/saved/week15.xlsx
+++ b/predict/2023/saved/week15.xlsx
@@ -67,7 +67,7 @@
     <t>36.9</t>
   </si>
   <si>
-    <t>10</t>
+    <t>9</t>
   </si>
   <si>
     <t>Navy</t>
